--- a/rosters/2023/Brooklyn/Brooklyn.xlsx
+++ b/rosters/2023/Brooklyn/Brooklyn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
   <si>
     <t>No.</t>
   </si>
@@ -46,205 +46,196 @@
     <t>bbref url</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
+    <t>Royce O'Neale</t>
   </si>
   <si>
     <t>Nic Claxton</t>
   </si>
   <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
     <t>Joe Harris</t>
   </si>
   <si>
     <t>Edmond Sumner</t>
   </si>
   <si>
-    <t>Kyrie Irving</t>
+    <t>Yuta Watanabe</t>
   </si>
   <si>
     <t>Ben Simmons</t>
   </si>
   <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
     <t>Seth Curry</t>
   </si>
   <si>
-    <t>Yuta Watanabe</t>
-  </si>
-  <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
     <t>Patty Mills</t>
   </si>
   <si>
     <t>Day'Ron Sharpe</t>
   </si>
   <si>
-    <t>Markieff Morris</t>
-  </si>
-  <si>
-    <t>T.J. Warren</t>
-  </si>
-  <si>
     <t>David Duke Jr. (TW)</t>
   </si>
   <si>
-    <t>Kessler Edwards</t>
-  </si>
-  <si>
-    <t>Alondes Williams (TW)</t>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Dorian Finney-Smith</t>
+  </si>
+  <si>
+    <t>Dru Smith (TW)</t>
+  </si>
+  <si>
+    <t>Mikal Bridges</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>PG</t>
   </si>
   <si>
     <t>PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>PG</t>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>6-11</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>6-9</t>
   </si>
   <si>
     <t>6-10</t>
   </si>
   <si>
-    <t>6-11</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
     <t>6-2</t>
   </si>
   <si>
-    <t>6-9</t>
-  </si>
-  <si>
     <t>6-1</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>September 29, 1988</t>
+    <t>June 5, 1993</t>
   </si>
   <si>
     <t>April 17, 1999</t>
   </si>
   <si>
-    <t>June 5, 1993</t>
-  </si>
-  <si>
     <t>September 6, 1991</t>
   </si>
   <si>
     <t>December 31, 1995</t>
   </si>
   <si>
-    <t>March 23, 1992</t>
+    <t>October 13, 1994</t>
   </si>
   <si>
     <t>July 20, 1996</t>
   </si>
   <si>
+    <t>October 13, 2001</t>
+  </si>
+  <si>
     <t>August 23, 1990</t>
   </si>
   <si>
-    <t>October 13, 1994</t>
-  </si>
-  <si>
-    <t>October 13, 2001</t>
-  </si>
-  <si>
     <t>August 11, 1988</t>
   </si>
   <si>
     <t>November 6, 2001</t>
   </si>
   <si>
-    <t>September 2, 1989</t>
-  </si>
-  <si>
-    <t>September 5, 1993</t>
-  </si>
-  <si>
     <t>October 13, 1999</t>
   </si>
   <si>
-    <t>August 9, 2000</t>
-  </si>
-  <si>
-    <t>June 19, 1999</t>
+    <t>April 6, 1993</t>
+  </si>
+  <si>
+    <t>May 4, 1993</t>
+  </si>
+  <si>
+    <t>December 30, 1997</t>
+  </si>
+  <si>
+    <t>August 30, 1996</t>
+  </si>
+  <si>
+    <t>March 3, 1996</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
+    <t>jp</t>
+  </si>
+  <si>
     <t>au</t>
   </si>
   <si>
-    <t>jp</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>5</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>7</t>
+    <t>6</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>Texas</t>
+    <t>Denver, Baylor</t>
   </si>
   <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>Denver, Baylor</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
     <t>Xavier</t>
   </si>
   <si>
-    <t>Duke</t>
+    <t>George Washington</t>
   </si>
   <si>
     <t>LSU</t>
@@ -253,79 +244,76 @@
     <t>Liberty, Duke</t>
   </si>
   <si>
-    <t>George Washington</t>
-  </si>
-  <si>
     <t>Saint Mary's</t>
   </si>
   <si>
     <t>UNC</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
     <t>Providence</t>
   </si>
   <si>
-    <t>Pepperdine</t>
-  </si>
-  <si>
-    <t>Triton College, Oklahoma, Wake Forest</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/d/duranke01.html</t>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>University of Evansville, Missouri</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Pitt, UNC</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/o/onealro01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/claxtni01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/o/onealro01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/harrijo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/sumneed01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/i/irvinky01.html</t>
+    <t>https://www.basketball-reference.com/players/w/watanyu01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/simmobe01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/t/thomaca02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/curryse01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/watanyu01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/t/thomaca02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/millspa02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/sharpda01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/morrima02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/warretj01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/d/dukeda01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/e/edwarke02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/willial06.html</t>
+    <t>https://www.basketball-reference.com/players/d/dinwisp01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/f/finnedo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/s/smithdr01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/bridgmi01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/johnsca02.html</t>
   </si>
 </sst>
 </file>
@@ -696,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -763,10 +751,10 @@
         <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -780,16 +768,16 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -798,10 +786,10 @@
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -809,22 +797,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -833,10 +821,10 @@
         <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -844,22 +832,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
@@ -868,10 +856,10 @@
         <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -879,34 +867,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -914,34 +902,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -949,22 +937,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
       <c r="F8">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
         <v>59</v>
@@ -973,10 +961,10 @@
         <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -990,7 +978,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -999,19 +987,19 @@
         <v>185</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1019,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1031,22 +1019,22 @@
         <v>37</v>
       </c>
       <c r="F10">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1054,34 +1042,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
         <v>77</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1089,34 +1077,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
       </c>
       <c r="F12">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1124,34 +1112,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
         <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1159,34 +1147,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
         <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1194,34 +1182,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
         <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1229,34 +1217,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F16">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
         <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1264,69 +1252,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
         <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18">
-        <v>210</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1347,7 +1300,6 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Brooklyn/Brooklyn.xlsx
+++ b/rosters/2023/Brooklyn/Brooklyn.xlsx
@@ -85,15 +85,15 @@
     <t>Dorian Finney-Smith</t>
   </si>
   <si>
+    <t>Mikal Bridges</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
     <t>Dru Smith (TW)</t>
   </si>
   <si>
-    <t>Mikal Bridges</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -136,12 +136,12 @@
     <t>6-7</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>June 5, 1993</t>
   </si>
   <si>
@@ -181,15 +181,15 @@
     <t>May 4, 1993</t>
   </si>
   <si>
+    <t>August 30, 1996</t>
+  </si>
+  <si>
+    <t>March 3, 1996</t>
+  </si>
+  <si>
     <t>December 30, 1997</t>
   </si>
   <si>
-    <t>August 30, 1996</t>
-  </si>
-  <si>
-    <t>March 3, 1996</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -259,15 +259,15 @@
     <t>Florida</t>
   </si>
   <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Pitt, UNC</t>
+  </si>
+  <si>
     <t>University of Evansville, Missouri</t>
   </si>
   <si>
-    <t>Villanova</t>
-  </si>
-  <si>
-    <t>Pitt, UNC</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/o/onealro01.html</t>
   </si>
   <si>
@@ -307,13 +307,13 @@
     <t>https://www.basketball-reference.com/players/f/finnedo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/bridgmi01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/johnsca02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/smithdr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/bridgmi01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/johnsca02.html</t>
   </si>
 </sst>
 </file>
@@ -1182,19 +1182,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F15">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
@@ -1203,7 +1203,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
         <v>81</v>
@@ -1217,19 +1217,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
@@ -1238,7 +1238,7 @@
         <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J16" t="s">
         <v>82</v>
@@ -1252,19 +1252,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
         <v>41</v>
       </c>
       <c r="F17">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
@@ -1273,7 +1273,7 @@
         <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s">
         <v>83</v>

--- a/rosters/2023/Brooklyn/Brooklyn.xlsx
+++ b/rosters/2023/Brooklyn/Brooklyn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
   <si>
     <t>No.</t>
   </si>
@@ -55,6 +55,12 @@
     <t>Joe Harris</t>
   </si>
   <si>
+    <t>Cam Thomas</t>
+  </si>
+  <si>
+    <t>Seth Curry</t>
+  </si>
+  <si>
     <t>Edmond Sumner</t>
   </si>
   <si>
@@ -64,12 +70,6 @@
     <t>Ben Simmons</t>
   </si>
   <si>
-    <t>Cam Thomas</t>
-  </si>
-  <si>
-    <t>Seth Curry</t>
-  </si>
-  <si>
     <t>Patty Mills</t>
   </si>
   <si>
@@ -79,21 +79,24 @@
     <t>David Duke Jr. (TW)</t>
   </si>
   <si>
+    <t>Dorian Finney-Smith</t>
+  </si>
+  <si>
+    <t>Mikal Bridges</t>
+  </si>
+  <si>
     <t>Spencer Dinwiddie</t>
   </si>
   <si>
-    <t>Dorian Finney-Smith</t>
-  </si>
-  <si>
-    <t>Mikal Bridges</t>
-  </si>
-  <si>
     <t>Cameron Johnson</t>
   </si>
   <si>
     <t>Dru Smith (TW)</t>
   </si>
   <si>
+    <t>Nerlens Noel</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
@@ -118,15 +121,15 @@
     <t>6-6</t>
   </si>
   <si>
+    <t>6-2</t>
+  </si>
+  <si>
     <t>6-9</t>
   </si>
   <si>
     <t>6-10</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
     <t>6-1</t>
   </si>
   <si>
@@ -151,6 +154,12 @@
     <t>September 6, 1991</t>
   </si>
   <si>
+    <t>October 13, 2001</t>
+  </si>
+  <si>
+    <t>August 23, 1990</t>
+  </si>
+  <si>
     <t>December 31, 1995</t>
   </si>
   <si>
@@ -160,12 +169,6 @@
     <t>July 20, 1996</t>
   </si>
   <si>
-    <t>October 13, 2001</t>
-  </si>
-  <si>
-    <t>August 23, 1990</t>
-  </si>
-  <si>
     <t>August 11, 1988</t>
   </si>
   <si>
@@ -175,21 +178,24 @@
     <t>October 13, 1999</t>
   </si>
   <si>
+    <t>May 4, 1993</t>
+  </si>
+  <si>
+    <t>August 30, 1996</t>
+  </si>
+  <si>
     <t>April 6, 1993</t>
   </si>
   <si>
-    <t>May 4, 1993</t>
-  </si>
-  <si>
-    <t>August 30, 1996</t>
-  </si>
-  <si>
     <t>March 3, 1996</t>
   </si>
   <si>
     <t>December 30, 1997</t>
   </si>
   <si>
+    <t>April 10, 1994</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -208,12 +214,12 @@
     <t>8</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -232,18 +238,18 @@
     <t>Virginia</t>
   </si>
   <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Liberty, Duke</t>
+  </si>
+  <si>
     <t>Xavier</t>
   </si>
   <si>
     <t>George Washington</t>
   </si>
   <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Liberty, Duke</t>
-  </si>
-  <si>
     <t>Saint Mary's</t>
   </si>
   <si>
@@ -253,21 +259,24 @@
     <t>Providence</t>
   </si>
   <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
     <t>Colorado</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Villanova</t>
-  </si>
-  <si>
     <t>Pitt, UNC</t>
   </si>
   <si>
     <t>University of Evansville, Missouri</t>
   </si>
   <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/o/onealro01.html</t>
   </si>
   <si>
@@ -277,6 +286,12 @@
     <t>https://www.basketball-reference.com/players/h/harrijo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/t/thomaca02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/c/curryse01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/sumneed01.html</t>
   </si>
   <si>
@@ -286,12 +301,6 @@
     <t>https://www.basketball-reference.com/players/s/simmobe01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/t/thomaca02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/c/curryse01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/millspa02.html</t>
   </si>
   <si>
@@ -301,19 +310,22 @@
     <t>https://www.basketball-reference.com/players/d/dukeda01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/f/finnedo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/bridgmi01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/d/dinwisp01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/f/finnedo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/bridgmi01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/johnsca02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/smithdr01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/n/noelne01.html</t>
   </si>
 </sst>
 </file>
@@ -684,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,28 +745,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -768,28 +780,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -803,28 +815,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -832,34 +844,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -867,34 +879,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -902,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -911,25 +923,25 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
         <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -937,34 +949,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -972,34 +984,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1013,28 +1025,28 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1048,28 +1060,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11">
         <v>265</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1083,28 +1095,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12">
         <v>205</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1112,34 +1124,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1147,34 +1159,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
         <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1182,34 +1194,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1223,28 +1235,28 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>210</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1258,28 +1270,63 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17">
         <v>203</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>220</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1300,6 +1347,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Brooklyn/Brooklyn.xlsx
+++ b/rosters/2023/Brooklyn/Brooklyn.xlsx
@@ -55,12 +55,12 @@
     <t>Joe Harris</t>
   </si>
   <si>
+    <t>Seth Curry</t>
+  </si>
+  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
-    <t>Seth Curry</t>
-  </si>
-  <si>
     <t>Edmond Sumner</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>September 6, 1991</t>
   </si>
   <si>
+    <t>August 23, 1990</t>
+  </si>
+  <si>
     <t>October 13, 2001</t>
   </si>
   <si>
-    <t>August 23, 1990</t>
-  </si>
-  <si>
     <t>December 31, 1995</t>
   </si>
   <si>
@@ -238,12 +238,12 @@
     <t>Virginia</t>
   </si>
   <si>
+    <t>Liberty, Duke</t>
+  </si>
+  <si>
     <t>LSU</t>
   </si>
   <si>
-    <t>Liberty, Duke</t>
-  </si>
-  <si>
     <t>Xavier</t>
   </si>
   <si>
@@ -286,10 +286,10 @@
     <t>https://www.basketball-reference.com/players/h/harrijo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/c/curryse01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/t/thomaca02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/c/curryse01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/sumneed01.html</t>
@@ -844,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -853,19 +853,19 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
         <v>74</v>
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -888,19 +888,19 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
         <v>75</v>
@@ -1008,7 +1008,7 @@
         <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>94</v>

--- a/rosters/2023/Brooklyn/Brooklyn.xlsx
+++ b/rosters/2023/Brooklyn/Brooklyn.xlsx
@@ -94,7 +94,7 @@
     <t>Dru Smith (TW)</t>
   </si>
   <si>
-    <t>Nerlens Noel</t>
+    <t>Moses Brown</t>
   </si>
   <si>
     <t>SF</t>
@@ -145,6 +145,9 @@
     <t>6-3</t>
   </si>
   <si>
+    <t>7-2</t>
+  </si>
+  <si>
     <t>June 5, 1993</t>
   </si>
   <si>
@@ -193,9 +196,6 @@
     <t>December 30, 1997</t>
   </si>
   <si>
-    <t>April 10, 1994</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -274,7 +274,7 @@
     <t>University of Evansville, Missouri</t>
   </si>
   <si>
-    <t>Kentucky</t>
+    <t>UCLA</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/o/onealro01.html</t>
@@ -325,7 +325,7 @@
     <t>https://www.basketball-reference.com/players/s/smithdr01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/n/noelne01.html</t>
+    <t>https://www.basketball-reference.com/players/b/brownmo01.html</t>
   </si>
 </sst>
 </file>
@@ -754,7 +754,7 @@
         <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
         <v>60</v>
@@ -789,7 +789,7 @@
         <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
         <v>60</v>
@@ -824,7 +824,7 @@
         <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
         <v>60</v>
@@ -859,7 +859,7 @@
         <v>185</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
         <v>60</v>
@@ -894,7 +894,7 @@
         <v>210</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
         <v>61</v>
@@ -929,7 +929,7 @@
         <v>196</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
         <v>60</v>
@@ -964,7 +964,7 @@
         <v>215</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
         <v>61</v>
@@ -999,7 +999,7 @@
         <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
         <v>62</v>
@@ -1034,7 +1034,7 @@
         <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
         <v>62</v>
@@ -1069,7 +1069,7 @@
         <v>265</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
         <v>60</v>
@@ -1104,7 +1104,7 @@
         <v>205</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
         <v>60</v>
@@ -1139,7 +1139,7 @@
         <v>220</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
         <v>60</v>
@@ -1174,7 +1174,7 @@
         <v>209</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s">
         <v>60</v>
@@ -1209,7 +1209,7 @@
         <v>215</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -1244,7 +1244,7 @@
         <v>210</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>60</v>
@@ -1279,7 +1279,7 @@
         <v>203</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
         <v>60</v>
@@ -1298,9 +1298,6 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -1308,19 +1305,19 @@
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F18">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
         <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
         <v>86</v>

--- a/rosters/2023/Brooklyn/Brooklyn.xlsx
+++ b/rosters/2023/Brooklyn/Brooklyn.xlsx
@@ -46,25 +46,28 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
     <t>Royce O'Neale</t>
   </si>
   <si>
-    <t>Nic Claxton</t>
-  </si>
-  <si>
     <t>Joe Harris</t>
   </si>
   <si>
     <t>Seth Curry</t>
   </si>
   <si>
+    <t>Yuta Watanabe</t>
+  </si>
+  <si>
     <t>Cam Thomas</t>
   </si>
   <si>
     <t>Edmond Sumner</t>
   </si>
   <si>
-    <t>Yuta Watanabe</t>
+    <t>Day'Ron Sharpe</t>
   </si>
   <si>
     <t>Ben Simmons</t>
@@ -73,36 +76,33 @@
     <t>Patty Mills</t>
   </si>
   <si>
-    <t>Day'Ron Sharpe</t>
-  </si>
-  <si>
-    <t>David Duke Jr. (TW)</t>
+    <t>Mikal Bridges</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
   </si>
   <si>
     <t>Dorian Finney-Smith</t>
   </si>
   <si>
-    <t>Mikal Bridges</t>
-  </si>
-  <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
     <t>Cameron Johnson</t>
   </si>
   <si>
+    <t>David Duke Jr.</t>
+  </si>
+  <si>
     <t>Dru Smith (TW)</t>
   </si>
   <si>
-    <t>Moses Brown</t>
+    <t>RaiQuan Gray (TW)</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>SF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -112,12 +112,12 @@
     <t>PF</t>
   </si>
   <si>
+    <t>6-11</t>
+  </si>
+  <si>
     <t>6-4</t>
   </si>
   <si>
-    <t>6-11</t>
-  </si>
-  <si>
     <t>6-6</t>
   </si>
   <si>
@@ -145,28 +145,28 @@
     <t>6-3</t>
   </si>
   <si>
-    <t>7-2</t>
+    <t>April 17, 1999</t>
   </si>
   <si>
     <t>June 5, 1993</t>
   </si>
   <si>
-    <t>April 17, 1999</t>
-  </si>
-  <si>
     <t>September 6, 1991</t>
   </si>
   <si>
     <t>August 23, 1990</t>
   </si>
   <si>
+    <t>October 13, 1994</t>
+  </si>
+  <si>
     <t>October 13, 2001</t>
   </si>
   <si>
     <t>December 31, 1995</t>
   </si>
   <si>
-    <t>October 13, 1994</t>
+    <t>November 6, 2001</t>
   </si>
   <si>
     <t>July 20, 1996</t>
@@ -175,27 +175,27 @@
     <t>August 11, 1988</t>
   </si>
   <si>
-    <t>November 6, 2001</t>
+    <t>August 30, 1996</t>
+  </si>
+  <si>
+    <t>April 6, 1993</t>
+  </si>
+  <si>
+    <t>May 4, 1993</t>
+  </si>
+  <si>
+    <t>March 3, 1996</t>
   </si>
   <si>
     <t>October 13, 1999</t>
   </si>
   <si>
-    <t>May 4, 1993</t>
-  </si>
-  <si>
-    <t>August 30, 1996</t>
-  </si>
-  <si>
-    <t>April 6, 1993</t>
-  </si>
-  <si>
-    <t>March 3, 1996</t>
-  </si>
-  <si>
     <t>December 30, 1997</t>
   </si>
   <si>
+    <t>July 7, 1999</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -205,21 +205,21 @@
     <t>au</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -229,73 +229,76 @@
     <t>R</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
     <t>Denver, Baylor</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
     <t>Liberty, Duke</t>
   </si>
   <si>
+    <t>George Washington</t>
+  </si>
+  <si>
     <t>LSU</t>
   </si>
   <si>
     <t>Xavier</t>
   </si>
   <si>
-    <t>George Washington</t>
+    <t>UNC</t>
   </si>
   <si>
     <t>Saint Mary's</t>
   </si>
   <si>
-    <t>UNC</t>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Pitt, UNC</t>
   </si>
   <si>
     <t>Providence</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Villanova</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Pitt, UNC</t>
-  </si>
-  <si>
     <t>University of Evansville, Missouri</t>
   </si>
   <si>
-    <t>UCLA</t>
+    <t>Florida State</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/c/claxtni01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/o/onealro01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/claxtni01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/harrijo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/curryse01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/watanyu01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/t/thomaca02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/sumneed01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/watanyu01.html</t>
+    <t>https://www.basketball-reference.com/players/s/sharpda01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/simmobe01.html</t>
@@ -304,28 +307,25 @@
     <t>https://www.basketball-reference.com/players/m/millspa02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/s/sharpda01.html</t>
+    <t>https://www.basketball-reference.com/players/b/bridgmi01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/d/dinwisp01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/f/finnedo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/johnsca02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/dukeda01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/f/finnedo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/bridgmi01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/d/dinwisp01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/johnsca02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/s/smithdr01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/brownmo01.html</t>
+    <t>https://www.basketball-reference.com/players/g/grayra01.html</t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -751,10 +751,10 @@
         <v>32</v>
       </c>
       <c r="F2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
         <v>60</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -786,10 +786,10 @@
         <v>33</v>
       </c>
       <c r="F3">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
         <v>60</v>
@@ -824,7 +824,7 @@
         <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
         <v>60</v>
@@ -859,7 +859,7 @@
         <v>185</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
         <v>60</v>
@@ -879,22 +879,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
         <v>61</v>
@@ -914,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -923,16 +923,16 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
         <v>67</v>
@@ -949,28 +949,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
         <v>77</v>
@@ -984,31 +984,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
         <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>94</v>
@@ -1019,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1028,22 +1028,22 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
         <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>95</v>
@@ -1054,28 +1054,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -1089,22 +1089,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
         <v>60</v>
@@ -1124,28 +1124,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
         <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
         <v>81</v>
@@ -1159,28 +1159,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
         <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
         <v>82</v>
@@ -1194,28 +1194,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
         <v>83</v>
@@ -1229,28 +1229,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
         <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
         <v>84</v>
@@ -1279,7 +1279,7 @@
         <v>203</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
         <v>60</v>
@@ -1298,26 +1298,29 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
         <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
         <v>86</v>
